--- a/Parent-Child_list.xlsx
+++ b/Parent-Child_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryozo/Dropbox/Client/ULVAC/ElectricDesignManagement/Tools/Revision-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2162D1-4DA7-5544-A017-54F54AC5FA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01586AEB-AB56-1E49-9FA7-278F3257624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="620" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -532,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -570,10 +570,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -640,10 +640,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -675,10 +675,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
